--- a/Files/bak/small_metricasTools.xlsx
+++ b/Files/bak/small_metricasTools.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-23130" yWindow="3870" windowWidth="21600" windowHeight="11235" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Metriques" sheetId="2" r:id="rId5"/>
+    <sheet name="Metriques" sheetId="2" r:id="rId2"/>
+    <sheet name="Results" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName hidden="true" localSheetId="0" name="_xlnm._FilterDatabase">Hoja1!$A$1:$O$1297</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="186">
   <si>
     <t>AP-LGT SIGLO</t>
   </si>
@@ -592,6 +593,12 @@
   <si>
     <t>2</t>
   </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
 </sst>
 </file>
 
@@ -600,7 +607,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,6 +625,14 @@
       <sz val="10"/>
       <color indexed="18"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -654,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="top"/>
@@ -690,6 +705,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,18 +1040,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7EF63-D895-4D43-8DBB-78120F306AD6}">
-  <dimension ref="A1:O1297"/>
+  <dimension ref="A1:AG1297"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:AA1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="true" max="1" min="1" width="24.5546875"/>
+    <col max="33" min="27" style="13" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1102,8 +1119,29 @@
       <c r="W1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="AA1" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1180,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1215,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1254,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,28 +1299,49 @@
         <v>1</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>2366.5</v>
       </c>
-      <c r="R5">
+      <c r="S5">
+        <v>273.65763888888887</v>
+      </c>
+      <c r="T5">
+        <v>19.09861111111111</v>
+      </c>
+      <c r="U5">
+        <v>188.6875</v>
+      </c>
+      <c r="V5">
+        <v>143.69861111111112</v>
+      </c>
+      <c r="W5">
+        <v>44.98888888888889</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>2366.5</v>
+      </c>
+      <c r="AB5" s="13">
         <v>2342.5</v>
       </c>
-      <c r="S5">
+      <c r="AC5" s="13">
         <v>117.70208333333333</v>
       </c>
-      <c r="T5">
+      <c r="AD5" s="13">
         <v>19.097916666666666</v>
       </c>
-      <c r="U5">
-        <v>65.66805555555555</v>
-      </c>
-      <c r="V5">
-        <v>56.55416666666667</v>
-      </c>
-      <c r="W5">
+      <c r="AE5" s="13">
+        <v>65.668055555555554</v>
+      </c>
+      <c r="AF5" s="13">
+        <v>56.554166666666667</v>
+      </c>
+      <c r="AG5" s="13">
         <v>32.93611111111111</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1326,29 +1385,29 @@
       <c r="O6" s="2">
         <v>1.6666666666666667</v>
       </c>
-      <c r="Q6">
+      <c r="AA6" s="13">
         <v>3742.9166666666665</v>
       </c>
-      <c r="R6">
+      <c r="AB6" s="13">
         <v>3702.9166666666665</v>
       </c>
-      <c r="S6">
+      <c r="AC6" s="13">
         <v>155.95555555555555</v>
       </c>
-      <c r="T6">
-        <v>0.0006944444444444445</v>
-      </c>
-      <c r="U6">
+      <c r="AD6" s="13">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="AE6" s="13">
         <v>123.01944444444445</v>
       </c>
-      <c r="V6">
-        <v>87.14444444444445</v>
-      </c>
-      <c r="W6">
-        <v>32.93541666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="AF6" s="13">
+        <v>87.144444444444446</v>
+      </c>
+      <c r="AG6" s="13">
+        <v>32.935416666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1446,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,10 +1489,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>404.9</v>
-      </c>
-      <c r="R8">
-        <v>388.9</v>
       </c>
       <c r="S8">
         <v>25.084722222222222</v>
@@ -1448,10 +1507,31 @@
         <v>4.792361111111111</v>
       </c>
       <c r="W8">
-        <v>9.956249999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>2.1222222222222222</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>404.9</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>388.9</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>25.084722222222222</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>8.2138888888888886</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>6.9145833333333329</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>4.7923611111111111</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>9.9562499999999989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1495,11 +1575,15 @@
       <c r="O9" s="2">
         <v>0.16666666666666666</v>
       </c>
+      <c r="P9">
+        <f>K9-J9</f>
+        <v>14.954861111109494</v>
+      </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>387.8</v>
-      </c>
-      <c r="R9">
-        <v>383.8</v>
       </c>
       <c r="S9">
         <v>33.00972222222222</v>
@@ -1514,10 +1598,31 @@
         <v>0.07222222222222223</v>
       </c>
       <c r="W9">
+        <v>1.1312499999999999</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>387.8</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>383.8</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>33.009722222222223</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>16.851388888888888</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>1.2034722222222223</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="AG9" s="13">
         <v>14.954861111111112</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -1562,28 +1667,49 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>491.45</v>
       </c>
-      <c r="R10">
+      <c r="S10">
+        <v>168.48958333333331</v>
+      </c>
+      <c r="T10">
+        <v>142.8097222222222</v>
+      </c>
+      <c r="U10">
+        <v>17.31875</v>
+      </c>
+      <c r="V10">
+        <v>4.380555555555556</v>
+      </c>
+      <c r="W10">
+        <v>12.938194444444445</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>491.45</v>
+      </c>
+      <c r="AB10" s="13">
         <v>451.45</v>
       </c>
-      <c r="S10">
+      <c r="AC10" s="13">
         <v>22.452083333333334</v>
       </c>
-      <c r="T10">
+      <c r="AD10" s="13">
         <v>1.9749999999999999</v>
       </c>
-      <c r="U10">
+      <c r="AE10" s="13">
         <v>13.120138888888889</v>
       </c>
-      <c r="V10">
+      <c r="AF10" s="13">
         <v>0.27847222222222223</v>
       </c>
-      <c r="W10">
-        <v>7.356944444444444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="AG10" s="13">
+        <v>7.3569444444444443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" s="12" t="s">
         <v>48</v>
       </c>
@@ -1620,7 +1746,7 @@
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -1665,10 +1791,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>295.96666666666664</v>
-      </c>
-      <c r="R12">
-        <v>287.96666666666664</v>
       </c>
       <c r="S12">
         <v>22.05763888888889</v>
@@ -1683,10 +1809,31 @@
         <v>4.9944444444444445</v>
       </c>
       <c r="W12">
+        <v>7.3374999999999995</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>295.96666666666664</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>287.96666666666664</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>22.057638888888889</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>9.7256944444444446</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>12.331944444444444</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>4.9944444444444445</v>
+      </c>
+      <c r="AG12" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:33">
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
@@ -1730,29 +1877,29 @@
       <c r="O13" s="9">
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q13">
+      <c r="AA13" s="13">
         <v>124.86666666666666</v>
       </c>
-      <c r="R13">
+      <c r="AB13" s="13">
         <v>108.86666666666666</v>
       </c>
-      <c r="S13">
-        <v>146.0375</v>
-      </c>
-      <c r="T13">
-        <v>140.8347222222222</v>
-      </c>
-      <c r="U13">
-        <v>4.198611111111111</v>
-      </c>
-      <c r="V13">
-        <v>4.102083333333334</v>
-      </c>
-      <c r="W13">
+      <c r="AC13" s="13">
+        <v>146.03749999999999</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>140.83472222222221</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>4.1986111111111111</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>4.1020833333333337</v>
+      </c>
+      <c r="AG13" s="13">
         <v>1.0041666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:33">
       <c r="A14" s="12" t="s">
         <v>106</v>
       </c>
@@ -1795,7 +1942,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
         <v>106</v>
       </c>
@@ -1840,28 +1987,49 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>190.81666666666666</v>
       </c>
-      <c r="R15">
+      <c r="S15">
+        <v>355.5229166666667</v>
+      </c>
+      <c r="T15">
+        <v>174.7076388888889</v>
+      </c>
+      <c r="U15">
+        <v>46.43472222222223</v>
+      </c>
+      <c r="V15">
+        <v>29.4875</v>
+      </c>
+      <c r="W15">
+        <v>16.947222222222223</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>190.81666666666666</v>
+      </c>
+      <c r="AB15" s="13">
         <v>158.81666666666666</v>
       </c>
-      <c r="S15">
+      <c r="AC15" s="13">
         <v>157.04791666666668</v>
       </c>
-      <c r="T15">
+      <c r="AD15" s="13">
         <v>149.09722222222223</v>
       </c>
-      <c r="U15">
-        <v>6.805555555555556</v>
-      </c>
-      <c r="V15">
+      <c r="AE15" s="13">
+        <v>6.8055555555555562</v>
+      </c>
+      <c r="AF15" s="13">
         <v>1.9763888888888888</v>
       </c>
-      <c r="W15">
-        <v>1.145138888888889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="AG15" s="13">
+        <v>1.1451388888888889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
@@ -1905,29 +2073,29 @@
       <c r="O16" s="2">
         <v>1.6666666666666667</v>
       </c>
-      <c r="Q16">
+      <c r="AA16" s="13">
         <v>118.81666666666666</v>
       </c>
-      <c r="R16">
-        <v>78.81666666666666</v>
-      </c>
-      <c r="S16">
-        <v>5.08125</v>
-      </c>
-      <c r="T16">
+      <c r="AB16" s="13">
+        <v>78.816666666666663</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>5.0812499999999998</v>
+      </c>
+      <c r="AD16" s="13">
         <v>0.13055555555555556</v>
       </c>
-      <c r="U16">
-        <v>4.694444444444445</v>
-      </c>
-      <c r="V16">
+      <c r="AE16" s="13">
+        <v>4.6944444444444446</v>
+      </c>
+      <c r="AF16" s="13">
         <v>0.9555555555555556</v>
       </c>
-      <c r="W16">
+      <c r="AG16" s="13">
         <v>0.25625000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
         <v>106</v>
       </c>
@@ -1971,29 +2139,29 @@
       <c r="O17" s="2">
         <v>1.6666666666666667</v>
       </c>
-      <c r="Q17">
+      <c r="AA17" s="13">
         <v>170.93333333333334</v>
       </c>
-      <c r="R17">
+      <c r="AB17" s="13">
         <v>130.93333333333334</v>
       </c>
-      <c r="S17">
-        <v>21.25347222222222</v>
-      </c>
-      <c r="T17">
+      <c r="AC17" s="13">
+        <v>21.253472222222221</v>
+      </c>
+      <c r="AD17" s="13">
         <v>14.13125</v>
       </c>
-      <c r="U17">
+      <c r="AE17" s="13">
         <v>5.1930555555555555</v>
       </c>
-      <c r="V17">
+      <c r="AF17" s="13">
         <v>4.884722222222222</v>
       </c>
-      <c r="W17">
+      <c r="AG17" s="13">
         <v>1.9291666666666665</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
         <v>106</v>
       </c>
@@ -2037,29 +2205,29 @@
       <c r="O18" s="2">
         <v>1.6666666666666667</v>
       </c>
-      <c r="Q18">
+      <c r="AA18" s="13">
         <v>28.083333333333332</v>
       </c>
-      <c r="R18">
+      <c r="AB18" s="13">
         <v>-11.916666666666668</v>
       </c>
-      <c r="S18">
+      <c r="AC18" s="13">
         <v>1.1715277777777777</v>
       </c>
-      <c r="T18">
-        <v>0.001388888888888889</v>
-      </c>
-      <c r="U18">
-        <v>0.9131944444444445</v>
-      </c>
-      <c r="V18">
+      <c r="AD18" s="13">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="AF18" s="13">
         <v>0.15</v>
       </c>
-      <c r="W18">
-        <v>0.2569444444444445</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="AG18" s="13">
+        <v>0.25694444444444448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
         <v>106</v>
       </c>
@@ -2103,29 +2271,29 @@
       <c r="O19" s="2">
         <v>1.6666666666666667</v>
       </c>
-      <c r="Q19">
+      <c r="AA19" s="13">
         <v>309.48333333333335</v>
       </c>
-      <c r="R19">
+      <c r="AB19" s="13">
         <v>269.48333333333335</v>
       </c>
-      <c r="S19">
+      <c r="AC19" s="13">
         <v>24.240972222222222</v>
       </c>
-      <c r="T19">
+      <c r="AD19" s="13">
         <v>11.345833333333333</v>
       </c>
-      <c r="U19">
-        <v>8.943055555555555</v>
-      </c>
-      <c r="V19">
+      <c r="AE19" s="13">
+        <v>8.9430555555555546</v>
+      </c>
+      <c r="AF19" s="13">
         <v>7.6812499999999995</v>
       </c>
-      <c r="W19">
-        <v>3.952083333333333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="AG19" s="13">
+        <v>3.9520833333333329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
         <v>106</v>
       </c>
@@ -2169,29 +2337,29 @@
       <c r="O20" s="2">
         <v>1</v>
       </c>
-      <c r="Q20">
+      <c r="AA20" s="13">
         <v>1698.1666666666667</v>
       </c>
-      <c r="R20">
+      <c r="AB20" s="13">
         <v>1674.1666666666667</v>
       </c>
-      <c r="S20">
-        <v>70.75694444444444</v>
-      </c>
-      <c r="T20">
+      <c r="AC20" s="13">
+        <v>70.756944444444443</v>
+      </c>
+      <c r="AD20" s="13">
         <v>0</v>
       </c>
-      <c r="U20">
-        <v>7.007638888888889</v>
-      </c>
-      <c r="V20">
-        <v>5.890972222222222</v>
-      </c>
-      <c r="W20">
-        <v>63.74930555555556</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="AE20" s="13">
+        <v>7.0076388888888888</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>5.8909722222222216</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>63.749305555555559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
         <v>106</v>
       </c>
@@ -2235,29 +2403,29 @@
       <c r="O21" s="2">
         <v>1</v>
       </c>
-      <c r="Q21">
+      <c r="AA21" s="13">
         <v>1823.2666666666667</v>
       </c>
-      <c r="R21">
+      <c r="AB21" s="13">
         <v>1799.2666666666667</v>
       </c>
-      <c r="S21">
-        <v>75.97083333333333</v>
-      </c>
-      <c r="T21">
-        <v>0.001388888888888889</v>
-      </c>
-      <c r="U21">
+      <c r="AC21" s="13">
+        <v>75.970833333333331</v>
+      </c>
+      <c r="AD21" s="13">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="AE21" s="13">
         <v>12.877777777777778</v>
       </c>
-      <c r="V21">
+      <c r="AF21" s="13">
         <v>7.948611111111112</v>
       </c>
-      <c r="W21">
-        <v>63.09166666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="AG21" s="13">
+        <v>63.091666666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
@@ -2274,7 +2442,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:33">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
@@ -2291,7 +2459,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:33">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="4"/>
@@ -2308,7 +2476,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:33">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="4"/>
@@ -2325,7 +2493,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:33">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="4"/>
@@ -2342,7 +2510,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:33">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="4"/>
@@ -2359,7 +2527,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:33">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="4"/>
@@ -2376,7 +2544,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:33">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="4"/>
@@ -2393,7 +2561,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:33">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
@@ -2410,7 +2578,7 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:33">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="4"/>
@@ -2427,7 +2595,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:33">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="4"/>
@@ -23065,18 +23233,213 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>136.82881944444443</v>
+      </c>
+      <c r="E2">
+        <v>9.5493055555555557</v>
+      </c>
+      <c r="F2">
+        <v>94.34375</v>
+      </c>
+      <c r="G2">
+        <v>71.84930555555556</v>
+      </c>
+      <c r="H2">
+        <v>32.935763888888886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>25.084722222222222</v>
+      </c>
+      <c r="E3">
+        <v>8.2138888888888886</v>
+      </c>
+      <c r="F3">
+        <v>6.9145833333333329</v>
+      </c>
+      <c r="G3">
+        <v>4.7923611111111111</v>
+      </c>
+      <c r="H3">
+        <v>9.9562499999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>33.009722222222223</v>
+      </c>
+      <c r="E4">
+        <v>16.851388888888888</v>
+      </c>
+      <c r="F4">
+        <v>1.2034722222222223</v>
+      </c>
+      <c r="G4">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="H4">
+        <v>14.954861111111112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>84.244791666666657</v>
+      </c>
+      <c r="E5">
+        <v>71.404861111111103</v>
+      </c>
+      <c r="F5">
+        <v>8.6593750000000007</v>
+      </c>
+      <c r="G5">
+        <v>2.1902777777777782</v>
+      </c>
+      <c r="H5">
+        <v>4.1805555555555554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>22.057638888888889</v>
+      </c>
+      <c r="E6">
+        <v>9.7256944444444446</v>
+      </c>
+      <c r="F6">
+        <v>12.331944444444444</v>
+      </c>
+      <c r="G6">
+        <v>4.9944444444444445</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>50.788988095238096</v>
+      </c>
+      <c r="E7">
+        <v>24.958234126984131</v>
+      </c>
+      <c r="F7">
+        <v>6.6335317460317471</v>
+      </c>
+      <c r="G7">
+        <v>4.2125000000000004</v>
+      </c>
+      <c r="H7">
+        <v>19.197222222222223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
         <v>174</v>
@@ -23120,7 +23483,7 @@
         <v>71.84930555555556</v>
       </c>
       <c r="H2">
-        <v>32.935763888888886</v>
+        <v>22.494444444444444</v>
       </c>
     </row>
     <row r="3">
@@ -23146,7 +23509,7 @@
         <v>4.792361111111111</v>
       </c>
       <c r="H3">
-        <v>9.956249999999999</v>
+        <v>2.1222222222222222</v>
       </c>
     </row>
     <row r="4">
@@ -23172,7 +23535,7 @@
         <v>0.07222222222222223</v>
       </c>
       <c r="H4">
-        <v>14.954861111111112</v>
+        <v>1.1312499999999999</v>
       </c>
     </row>
     <row r="5">
@@ -23198,7 +23561,7 @@
         <v>2.190277777777778</v>
       </c>
       <c r="H5">
-        <v>4.180555555555555</v>
+        <v>6.4690972222222225</v>
       </c>
     </row>
     <row r="6">
@@ -23224,7 +23587,7 @@
         <v>4.9944444444444445</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.3374999999999995</v>
       </c>
     </row>
     <row r="7">
@@ -23250,7 +23613,7 @@
         <v>4.2125</v>
       </c>
       <c r="H7">
-        <v>19.197222222222223</v>
+        <v>2.4210317460317463</v>
       </c>
     </row>
   </sheetData>
